--- a/Algae_thesis_HR Data/microalgae_Exp_3.xlsx
+++ b/Algae_thesis_HR Data/microalgae_Exp_3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Ka_Chila\Data_Science_Ammar\HR_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Ka_Chila\Data_Science_Ammar\Algae_thesis_HR Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B4912B-A7DE-4E2A-A931-0C4B19B0076A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF9180C-5FBD-49A9-9036-33DDF7EEE45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -447,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -630,35 +630,35 @@
       <c r="L3" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
+      <c r="M3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U3" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V3" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
@@ -698,35 +698,35 @@
       <c r="L4" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
+      <c r="M4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U4" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V4" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
@@ -766,35 +766,35 @@
       <c r="L5" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
+      <c r="M5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U5" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V5" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
@@ -834,35 +834,35 @@
       <c r="L6" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
+      <c r="M6" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N6" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O6" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P6" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q6" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R6" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S6" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T6" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U6" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V6" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
@@ -902,35 +902,35 @@
       <c r="L7" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
+      <c r="M7" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N7" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O7" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P7" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q7" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R7" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S7" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T7" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U7" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V7" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
@@ -970,35 +970,35 @@
       <c r="L8" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
+      <c r="M8" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N8" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O8" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P8" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q8" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R8" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S8" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T8" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U8" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V8" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
@@ -1038,35 +1038,35 @@
       <c r="L9" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
+      <c r="M9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U9" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V9" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
@@ -1103,38 +1103,38 @@
       <c r="K10" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
+      <c r="L10" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M10" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N10" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O10" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P10" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q10" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R10" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S10" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T10" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U10" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V10" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
@@ -1171,38 +1171,38 @@
       <c r="K11" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
+      <c r="L11" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M11" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N11" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O11" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P11" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q11" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R11" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S11" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T11" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U11" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V11" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.35">
@@ -1239,38 +1239,38 @@
       <c r="K12" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
+      <c r="L12" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M12" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N12" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O12" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P12" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q12" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R12" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S12" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T12" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U12" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V12" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
@@ -1307,38 +1307,38 @@
       <c r="K13" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
+      <c r="L13" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M13" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N13" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O13" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P13" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q13" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R13" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S13" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T13" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U13" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V13" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
@@ -1375,38 +1375,38 @@
       <c r="K14" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
+      <c r="L14" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M14" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N14" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O14" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P14" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q14" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R14" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S14" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T14" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U14" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V14" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.35">
@@ -1443,38 +1443,38 @@
       <c r="K15" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
+      <c r="L15" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M15" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N15" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O15" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P15" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q15" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R15" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S15" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T15" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U15" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V15" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
@@ -1511,38 +1511,38 @@
       <c r="K16" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
+      <c r="L16" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M16" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N16" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O16" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P16" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q16" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R16" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S16" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T16" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U16" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V16" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.35">
@@ -1579,38 +1579,38 @@
       <c r="K17" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
+      <c r="L17" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M17" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N17" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O17" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P17" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q17" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R17" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S17" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T17" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U17" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V17" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.35">
@@ -1647,38 +1647,38 @@
       <c r="K18" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
+      <c r="L18" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M18" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N18" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O18" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P18" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q18" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R18" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S18" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T18" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U18" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V18" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.35">
@@ -1715,38 +1715,38 @@
       <c r="K19" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
+      <c r="L19" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M19" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N19" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O19" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P19" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q19" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R19" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S19" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T19" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U19" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V19" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.35">
@@ -1783,38 +1783,38 @@
       <c r="K20" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
+      <c r="L20" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M20" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N20" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O20" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P20" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q20" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R20" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S20" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T20" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U20" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V20" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.35">
@@ -1851,38 +1851,38 @@
       <c r="K21" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
+      <c r="L21" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M21" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N21" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O21" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P21" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q21" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R21" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S21" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T21" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U21" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V21" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.35">
@@ -1919,38 +1919,38 @@
       <c r="K22" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
+      <c r="L22" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M22" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N22" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O22" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P22" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q22" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R22" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S22" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T22" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U22" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V22" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.35">
@@ -1987,38 +1987,38 @@
       <c r="K23" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
+      <c r="L23" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M23" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N23" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O23" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P23" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q23" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R23" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S23" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T23" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U23" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V23" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.35">
@@ -2055,38 +2055,38 @@
       <c r="K24" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
+      <c r="L24" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M24" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N24" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O24" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P24" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q24" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R24" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S24" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T24" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U24" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V24" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.35">
@@ -2123,38 +2123,38 @@
       <c r="K25" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
+      <c r="L25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U25" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V25" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.35">
@@ -2191,38 +2191,38 @@
       <c r="K26" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
+      <c r="L26" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M26" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N26" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O26" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P26" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q26" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R26" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S26" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T26" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U26" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V26" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.35">
@@ -2259,38 +2259,38 @@
       <c r="K27" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
+      <c r="L27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U27" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V27" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.35">
@@ -2327,38 +2327,38 @@
       <c r="K28" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
+      <c r="L28" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M28" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N28" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O28" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P28" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q28" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R28" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S28" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T28" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U28" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V28" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.35">
@@ -2395,38 +2395,38 @@
       <c r="K29" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
+      <c r="L29" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M29" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N29" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O29" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P29" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q29" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R29" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S29" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T29" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U29" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V29" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.35">
@@ -2463,38 +2463,38 @@
       <c r="K30" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
+      <c r="L30" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M30" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N30" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O30" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P30" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q30" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R30" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S30" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T30" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U30" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V30" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.35">
@@ -2531,38 +2531,38 @@
       <c r="K31" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
+      <c r="L31" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M31" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N31" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O31" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P31" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q31" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R31" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S31" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T31" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U31" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V31" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.35">
@@ -2599,38 +2599,38 @@
       <c r="K32" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
+      <c r="L32" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M32" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N32" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O32" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P32" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q32" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R32" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S32" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T32" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U32" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V32" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.35">
@@ -2667,38 +2667,38 @@
       <c r="K33" t="e">
         <v>#DIV/0!</v>
       </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
+      <c r="L33" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M33" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N33" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O33" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P33" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q33" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R33" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S33" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T33" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U33" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V33" t="e">
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/Algae_thesis_HR Data/microalgae_Exp_3.xlsx
+++ b/Algae_thesis_HR Data/microalgae_Exp_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python_Ka_Chila\Data_Science_Ammar\Algae_thesis_HR Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF9180C-5FBD-49A9-9036-33DDF7EEE45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B5ED67-9D01-4735-A86D-069ABB486084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -448,7 +448,7 @@
   <dimension ref="A1:V33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
